--- a/Table 1 with authors.xlsx
+++ b/Table 1 with authors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Käyttäjä\PycharmProjects\HumanOrChatGPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8494F2-94E7-4B7A-8D38-29249D7DDA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E0831C-BCDB-42C9-8CCF-271DD40D2961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D8C0215-5990-4EED-8E53-4AB4317B62E6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{6D8C0215-5990-4EED-8E53-4AB4317B62E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="183">
   <si>
     <t>Walt Whitman</t>
   </si>
@@ -105,11 +105,6 @@
 This song for mariners and all their ships.</t>
   </si>
   <si>
-    <t>I heard that you ask’d for something to prove this puzzle the New World,
-And to define America, her athletic Democracy,
-Therefore I send you my poems that you behold in them what you wanted.</t>
-  </si>
-  <si>
     <t>You who celebrate bygones,
 Who have explored the outward, the surfaces of the races, the life
 that has exhibited itself,
@@ -123,34 +118,6 @@
 I project the history of the future.</t>
   </si>
   <si>
-    <t>To thee old cause!
-Thou peerless, passionate, good cause,
-Thou stern, remorseless, sweet idea,
-Deathless throughout the ages, races, lands,
-After a strange sad war, great war for thee,
-(I think all war through time was really fought, and ever will be
-really fought, for thee,)
-These chants for thee, the eternal march of thee.
-(A war O soldiers not for itself alone,
-Far, far more stood silently waiting behind, now to advance in this book.)
-Thou orb of many orbs!
-Thou seething principle! thou well-kept, latent germ! thou centre!
-Around the idea of thee the war revolving,
-With all its angry and vehement play of causes,
-(With vast results to come for thrice a thousand years,)
-These recitatives for thee,—my book and the war are one,
-Merged in its spirit I and mine, as the contest hinged on thee,
-As a wheel on its axis turns, this book unwitting to itself,
-Around the idea of thee.</t>
-  </si>
-  <si>
-    <t>For him I sing,
-I raise the present on the past,
-(As some perennial tree out of its roots, the present on the past,)
-With time and space I him dilate and fuse the immortal laws,
-To make himself by them the law unto himself.</t>
-  </si>
-  <si>
     <t>When I read the book, the biography famous,
 And is this then (said I) what the author calls a man’s life?
 And so will some one when I am dead and gone write my life?
@@ -160,93 +127,12 @@
 I seek for my own use to trace out here.)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Beginning my studies the first step pleas’d me so much,
-The mere fact consciousness, these forms, the power of motion,
-The least insect or animal, the senses, eyesight, love,
-The first step I say awed me and pleas’d me so much,
-I have hardly gone and hardly wish’d to go any farther,
-But stop and loiter all the time to sing it in ecstatic songs.</t>
-  </si>
-  <si>
-    <t>How they are provided for upon the earth, (appearing at intervals,)
-How dear and dreadful they are to the earth,
-How they inure to themselves as much as to any—what a paradox
-appears their age,
-How people respond to them, yet know them not,
-How there is something relentless in their fate all times,
-How all times mischoose the objects of their adulation and reward,
-And how the same inexorable price must still be paid for the same
-great purchase.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> On journeys through the States we start,
-(Ay through the world, urged by these songs,
-Sailing henceforth to every land, to every sea,)
-We willing learners of all, teachers of all, and lovers of all.
-We have watch’d the seasons dispensing themselves and passing on,
-And have said, Why should not a man or woman do as much as the
-seasons, and effuse as much?
-We dwell a while in every city and town,
-We pass through Kanada, the North-east, the vast valley of the
-Mississippi, and the Southern States,
-We confer on equal terms with each of the States,
-We make trial of ourselves and invite men and women to hear,
-We say to ourselves, Remember, fear not, be candid, promulge the
-body and the soul,
-Dwell a while and pass on, be copious, temperate, chaste, magnetic,
-And what you effuse may then return as the seasons return,
-And may be just as much as the seasons.</t>
-  </si>
-  <si>
     <t>Here, take this gift,
 I was reserving it for some hero, speaker, or general,
 One who should serve the good old cause, the great idea, the
 progress and freedom of the race,
 Some brave confronter of despots, some daring rebel;
 But I see that what I was reserving belongs to you just as much as to any.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Me imperturbe, standing at ease in Nature,
-Master of all or mistress of all, aplomb in the midst of irrational things,
-Imbued as they, passive, receptive, silent as they,
-Finding my occupation, poverty, notoriety, foibles, crimes, less
-important than I thought,
-Me toward the Mexican sea, or in the Mannahatta or the Tennessee,
-or far north or inland,
-A river man, or a man of the woods or of any farm-life of these
-States or of the coast, or the lakes or Kanada,
-Me wherever my life is lived, O to be self-balanced for contingencies,
-To confront night, storms, hunger, ridicule, accidents, rebuffs, as
-the trees and animals do.</t>
-  </si>
-  <si>
-    <t>Thither as I look I see each result and glory retracing itself and
-nestling close, always obligated,
-Thither hours, months, years—thither trades, compacts,
-establishments, even the most minute,
-Thither every-day life, speech, utensils, politics, persons, estates;
-Thither we also, I with my leaves and songs, trustful, admirant,
-As a father to his father going takes his children along with him.</t>
-  </si>
-  <si>
-    <t>T is so much joy! 'T is so much joy!
-If I should fail, what poverty!
-And yet, as poor as I
-Have ventured all upon a throw;
-Have gained! Yes! Hesitated so
-This side the victory!
-Life is but life, and death but death!
-Bliss is but bliss, and breath but breath!
-And if, indeed, I fail,
-At least to know the worst is sweet.
-Defeat means nothing but defeat,
-No drearier can prevail!
-And if I gain, — oh, gun at sea,
-Oh, bells that in the steeples be,
-At first repeat it slow!
-For heaven is a different thing
-Conjectured, and waked sudden in,
-And might o'erwhelm me so!</t>
   </si>
   <si>
     <t>Soul, wilt thou toss again?
@@ -257,16 +143,6 @@
 Lingers to record thee;
 Imps in eager caucus
 Raffle for my soul.</t>
-  </si>
-  <si>
-    <t>Our share of night to bear,
-Our share of morning,
-Our blank in bliss to fill,
-Our blank in scorning.
-Here a star, and there a star,
-Some lose their way.
-Here a mist, and there a mist,
-Afterwards — day!</t>
   </si>
   <si>
     <t>Success is counted sweetest
@@ -291,24 +167,6 @@
   </si>
   <si>
     <t>Emily Dickinson</t>
-  </si>
-  <si>
-    <t>Glee! The great storm is over!
-Four have recovered the land;
-Forty gone down together
-Into the boiling sand.
-Ring, for the scant salvation!
-Toll, for the bonnie souls, —
-Neighbor and friend and bridegroom,
-Spinning upon the shoals!
-How they will tell the shipwreck
-When winter shakes the door,
-Till the children ask, "But the forty?
-Did they come back no more?"
-Then a silence suffuses the story,
-And a softness the teller's eye;
-And the children no further question,
-And only the waves reply.</t>
   </si>
   <si>
     <t>If I can stop one heart from breaking,
@@ -410,17 +268,6 @@
 Though shent with Egypt's plague, unkempt, unwashed, unhurt.</t>
   </si>
   <si>
-    <t xml:space="preserve"> The horrid crags, by toppling convent crowned,
-The cork-trees hoar that clothe the shaggy steep,
-The mountain moss by scorching skies imbrowned,
-The sunken glen, whose sunless shrubs must weep,
-The tender azure of the unruffled deep,
-The orange tints that gild the greenest bough,
-The torrents that from cliff to valley leap,
-The vine on high, the willow branch below,
-Mixed in one mighty scene, with varied beauty glow.</t>
-  </si>
-  <si>
     <t>Then slowly climb the many-winding way,
 And frequent turn to linger as you go,
 From loftier rocks new loveliness survey,
@@ -452,17 +299,6 @@
 These sepulchres of cities, which excite
 Sad wonder, and his yet surviving page
 The moral lesson bears, drawn from such pilgrimage.</t>
-  </si>
-  <si>
-    <t>Poor, paltry slaves! yet born midst noblest scenes—
-Why, Nature, waste thy wonders on such men?
-Lo! Cintra's glorious Eden intervenes
-In variegated maze of mount and glen.
-Ah me! what hand can pencil guide, or pen,
-To follow half on which the eye dilates
-Through views more dazzling unto mortal ken
-Than those whereof such things the bard relates,
-Who to the awe-struck world unlocked Elysium's gates?</t>
   </si>
   <si>
     <t>On, on the vessel flies, the land is gone,
@@ -758,21 +594,6 @@
     <t>Oscar Wilde</t>
   </si>
   <si>
-    <t>Phlebas the Phoenician, a fortnight dead,
-Forgot the cry of gulls, and the deep sea swell
-And the profit and loss.
-A current under sea
-Picked his bones in whispers. As he rose and fell
-He passed the stages of his age and youth
-Entering the whirlpool.
-Gentile or Jew
-O you who turn the wheel and look to windward,
-Consider Phlebas, who was once handsome and tall as you.</t>
-  </si>
-  <si>
-    <t>T. S. Eliot</t>
-  </si>
-  <si>
     <t>Se lauloi sininen lintu: »Ihmis-, ihmiskullat, kuinka teiss' on tuhma tieto autuudesta elon!
 Kuinka nousta nuori kukka voisi vanhan mieleen, suven henki heilimöidä syksyisessä puussa?
 Suljettu on suuri onni, taivas kiinni hälle, jok' ei lapsen lailla tule Terhensaaren linnaan.
@@ -781,67 +602,6 @@
 Elo niinkuin ensi kerran silmillänne nähkää, kun ei huolta huomenkoiton eikä eilis-ehtoon.
 Maan ei liene mahtajille Terhenlinna tehty, tehty vain on tulla niiden, joill' on unhon lahja;
 joill' on kyky kummastella, ilo ihmetellä, usko aina uudistua, toivo toinen olla.»</t>
-  </si>
-  <si>
-    <t>There is a tomb in Arqua;—reared in air,
-Pillared in their sarcophagus, repose
-The bones of Laura's lover:here repair
-Many familiar with his well-sung woes,
-The pilgrims of his genius.He arose
-To raise a language, and his land reclaim
-From the dull yoke of her barbaric foes:
-Watering the tree which bears his lady's name
-With his melodious tears, he gave himself to fame.</t>
-  </si>
-  <si>
-    <t>Not that I love thy children, whose dull eyes
-See nothing save their own unlovely woe,
-Whose minds know nothing, nothing care to know,—
-But that the roar of thy Democracies,
-Thy reigns of Terror, thy great Anarchies,
-Mirror my wildest passions like the sea
-And give my rage a brother—!Liberty!
-For this sake only do thy dissonant cries
-Delight my discreet soul, else might all kings
-By bloody knout or treacherous cannonades
-Rob nations of their rights inviolate
-And I remain unmoved—and yet, and yet,
-These Christs that die upon the barricades,
-God knows it I am with them, in some things.</t>
-  </si>
-  <si>
-    <t>Milton!I think thy spirit hath passed away
-From these white cliffs and high-embattled towers;
-This gorgeous fiery-coloured world of ours
-Seems fallen into ashes dull and grey,
-And the age changed unto a mimic play
-Wherein we waste our else too-crowded hours:
-For all our pomp and pageantry and powers
-We are but fit to delve the common clay,
-Seeing this little isle on which we stand,
-This England, this sea-lion of the sea,
-By ignorant demagogues is held in fee,
-Who love her not: Dear God! is this the land
-Which bare a triple empire in her hand
-When Cromwell spake the word Democracy!</t>
-  </si>
-  <si>
-    <t>See, I have climbed the mountain side
-Up to this holy house of God,
-Where once that Angel-Painter trod
-Who saw the heavens opened wide,
-And throned upon the crescent moon
-The Virginal white Queen of Grace,—
-Mary! could I but see thy face
-Death could not come at all too soon.
-O crowned by God with thorns and pain!
-Mother of Christ!O mystic wife!
-My heart is weary of this life
-And over-sad to sing again.
-O crowned by God with love and flame!
-O crowned by Christ the Holy One!
-O listen ere the searching sun
-Show to the world my sin and shame.</t>
   </si>
   <si>
     <t>Italia! thou art fallen, though with sheen
@@ -897,13 +657,6 @@
     <t>Eino Leino</t>
   </si>
   <si>
-    <t>Sain ma siivet aurinkoon, itse ilman herra oon, ukkoselta vaajat vienen; jumalaksi luotu lienen.
-Minkä tahdon, sen ma voin: päiden päällä salamoin, isken maihin ihmisien, katot särjen kaupunkien.
-Suitsen surmaa helmastain, tapan, ketä tahdon vain, aseellista, aseetonta— niitä jo ma niitin monta.
-Vuosisatain unelman, toivon pitkän toteutan, niinkuin lintu lennän, liidän, kimppuun ihmiskunnan kiidän.
-Kunniaani laulakaa kaikki kansat, kaikki maa, kiitostani veisatkaatte, silloin tekin siivet saatte!</t>
-  </si>
-  <si>
     <t>Voi meitä, voi!
 Tuossa taaton, tuossa veljen
 verta hanki joi.
@@ -1101,12 +854,6 @@
 on onni askeleissas suloinen.</t>
   </si>
   <si>
-    <t>Mitään muuta ei ole kuin tämä päällekirjoitus vanhassa ohjelmassa.
-Mutta anna mielikuvituksesi kyyhkysten lähteä itäiseen ilmansuuntaan aamuvihreän niityn halki! Ja näe elämän kauneus!
-Hänen ruskeassa tukassaan on jalomuotoinen solmu, silkkinauhan sitoma. Ja hänen paljas kätensä, jota ei saa koskea — vain rakastaa, on puoliksi vedessä. Ja jos taidat nähdä, on hänen sydämensä kohonnut taivaaseen liekehtivänä, elähdyttävänä: se sinkoaa itsestään punaista, vihreätä, sinistä, keltaista, kaikki riemulliset tulen värit!
-Ja kuule hänen laulunsa, joka on vielä liikkumattomana hänen huulillaan eikä voi päästä ilmoille! Se on korkea laulu: koko taivas antaa resonanssin. Ja äkkiä kilahtavat soimaan valkoiset, käsittämättömän heleät tiu'ut.</t>
-  </si>
-  <si>
     <t>Minä istuin ikkunassa ja pilviä katselin. Sysimustat vaunut vieri yli Helsingin kaupungin.
 Sysimustat vaunut vieri:
 näin tuulten ajavan.
@@ -1229,69 +976,16 @@
 Anna sen lentää levottomin siivin, kurkien keralla kauas kattojen yli jonnekin, toiseen maailmaan, vainioille, jotka odottavat, korpeen, jossa elämä herää. Lähetä tunteesi kultakiharaiset lapset tervehtimään kevättä, joka tänään syntyi luonnon sydämessä, auringon säteissä ja ihmisessä.</t>
   </si>
   <si>
-    <t>Tähän on ihana oikaista.
-Kallion kämmenelle.
-Alastomana.
-Uimasta päästyä juuri.
-Otsalla vielä
-märkien hiusten liuta.
-Tässä on kesä.
-Vieressä, yllä ja eessä.
-Neilikan terissä telmien.
-Mansikan punassa posket.
-Ilojaan ilmoille huutaen
-lauluna rantarastaan.
-Kurotat kätesi vain
-ja kas—se on kesää täynnä!
-Tässä on ihana olla.
-Kesäkiireitä katsella muurahaisten.
-Tämä on onnea, tämä.
-Katsella.
-Aatoksitta.
-Taivas telttana yllä
-niinkuin sininen silkki.
-Katossa huikean kiiltävä kultaraha.
-On nyt nahka jo kypsä, on totta maarin. jo, jopa onkin oikea Luojan leivinuuni kallio tämä.</t>
-  </si>
-  <si>
     <t>Ajanharmain, sammaltunein seinin vasten iltataivaan ruskotusta seisot rantatörmälläsi horsmankukkaisella. Siipitynkäs tuuliin kurkoitat niinkuin käsivarret rukoukseen ojetut.
 Piennarpolkus on jo ruohottunut, pitkiin vuosikausiin sill' ei astujaa. Myllykuormat kulkee ohitsesi. Yksinäisenä ja hyljättynä olet oiva siivellisten pesäpaikka.
 Lehtokurpan iltaan äännellessä, riihen lämmitessä, lemutessa uudisviljan tuoksun kartanolla viljantuojaa turhaan vuottelet.
 Kurpan yksinäisen iltaan äännellessä on kuin hiljaa, hiljaa surisit. Niinkuin vanha, rujo, masennettu ihminen, jok' on elämästä syrjään jäänyt.</t>
   </si>
   <si>
-    <t>Ääriä käyn kotirantain, kaipaus sydäntä syö. Valkeiden kuohujen kutsuja kantain aallot paasihin lyö.
-Jos kotivuorelle nousen, ah, miten alhaalla oon! Saisinpa taattoni jäntevän jousen —ampuisin aurinkoon!
-Kun kotilaaksoja harhaan, kaipaus yltyy vaan: täälläkö, täälläkö aikani parhaan jäisin mä kuluttamaan!
-Maanala-vankilan koppiin kuin sydän teljetty ois! Ei! Ulos aavalle, myrskyjen oppiin, päänmenoleikkihin, pois!
-Tääll' olet tielläni, taatto, tielläni uljahat työs. Laakerilehvät ja sankarisaatto poikas on saatava myös!
-Taattoni tappelumiekan vyölleni vyöttävä oon. Voittajaks jään tahi jossakin hiekan hurmeeni punertakoon.</t>
-  </si>
-  <si>
-    <t>Ah, anteeks anna, että rakastan.
-En tohdi pyytää mitään enempää.
-Mun ainoaksi osakseni jää
-se riemu, tuska, että rakastan.
-Ah, anteeks anna, että rakastan.
-Jos mielit vihata, niin vihaa vaan.
-Sun luotas lähden, kärsin—kuitenkaan
-ma unhoita en, että rakastan.</t>
-  </si>
-  <si>
     <t>Minä olen hyljätyn linnan pieni murheellinen neito; ja sinä olet suuri väkevä sankari kaukaa ihmeellisestä maailmasta. Ehkä olet jonkun kreikkalaisen jumalan poika.
 Olemme kulkeneet koko päivän loistavassa metsässä. Sinne on valunut sineä ja kultaa taivaalta ja putoilee yhä oleanderinkukkia.
 Sinä ihana hullu, luulisi taivaan olevan viiniä täynnä! »Olet liian säteilevä tänään», sanot. »Mieluummin katson suoraan aurinkoon. Ja niin pieni olet, sopisit oikeaan käteeni!»
 Ja silmäsi kääntyvät minuun täynnä jumaloivaa hellyyttä. ja minä katselen nauraen oikeaa kättäsi, väkevää ja kaunista ja minusta tuntuu, että ulottuisin suutelemaan sitä, jos nousisin varpailleni.</t>
-  </si>
-  <si>
-    <t>Mikä tuoksu palmujen alla!
-Ah!
-Ruusunpunaiset kakadut hämmästyen
-pudottavat puoleksisyödyt hedelmät maahan.
-Ooo — nuori päällikkö kulkee kosioteillä!
-Hän valmisti suloisen voiteen kokosmaidosta ja lemuavista yrteistä, ja hänen ruumiinsa tuoksuu kuin laiva täynnä hedelmiä ja kukkia ja kanelia.
-Mikä jumalallinen päällikkö! Hänen molempiin poskiinsa ja rintoihinsa on tatuoitu valkoinen aurinko, ja seppele hehkuvia kukkia kiertyy hänen lanteillensa.
-Ja tytöt kirkuvat niin rakastuneesti: »Ooo, ihana päällikkö!» ja seisovat somina kuin ruukkunsa, kun hän astuu keikaroiden kaivolle palmujen alta.</t>
   </si>
   <si>
     <t>Venheemme yllä on suuri valkea kuu.
@@ -1589,6 +1283,1210 @@
   </si>
   <si>
     <t>Henrik Wegerland</t>
+  </si>
+  <si>
+    <t>Saima Harmaja</t>
+  </si>
+  <si>
+    <t>Beginning my studies the first step pleas’d me so much,
+The mere fact consciousness, these forms, the power of motion,
+The least insect or animal, the senses, eyesight, love,
+The first step I say awed me and pleas’d me so much,
+I have hardly gone and hardly wish’d to go any farther,
+But stop and loiter all the time to sing it in ecstatic songs.</t>
+  </si>
+  <si>
+    <t>I cannot tell you how it was;
+But this I know: it came to pass
+Upon a bright and breezy day
+When May was young; ah, pleasant May!
+As yet the poppies were not born
+Between the blades of tender corn;
+The last eggs had not hatched as yet,
+Nor any bird foregone its mate.
+I cannot tell you what it was;
+But this I know: it did but pass.
+It passed away with sunny May,
+With all sweet things it passed away,
+And left me old, and cold, and gray.</t>
+  </si>
+  <si>
+    <t>Christina Rossetti</t>
+  </si>
+  <si>
+    <t>Edgar Allan Poe</t>
+  </si>
+  <si>
+    <t>Helen, thy beauty is to me
+Like those Nicean barks of yore,
+That gently, o'er a perfumed sea,
+The weary, wayworn wanderer bore
+To his own native shore.
+On desperate seas long wont to roam,
+Thy hyacinth hair, thy classic face,
+Thy Naiad airs have brought me home
+To the glory that was Greece,
+And the grandeur that was Rome.
+Lo! in yon brilliant window-niche
+How statue-like I see thee stand,
+The agate lamp within thy hand!
+Ah, Psyche, from the regions which
+Are Holy Land!</t>
+  </si>
+  <si>
+    <t>My heart is like a singing bird
+Whose nest is in a watered shoot;
+My heart is like an apple-tree
+Whose boughs are bent with thick-set fruit;
+My heart is like a rainbow shell
+That paddles in a halcyon sea;
+My heart is gladder than all these
+Because my love is come to me.
+Raise me a dais of silk and down;
+Hang it with vair and purple dyes;
+Carve it in doves and pomegranates,
+And peacocks with a hundred eyes;
+Work it in gold and silver grapes,
+In leaves and silver fleurs-de-lys;
+Because the birthday of my life
+Is come, my love is come to me.</t>
+  </si>
+  <si>
+    <t>Live all thy sweet life through
+Sweet Rose, dew-sprent,
+Drop down thine evening dew
+To gather it anew
+When day is bright:
+I fancy thou wast meant
+Chiefly to give delight.
+Sing in the silent sky,
+Glad soaring bird;
+Sing out thy notes on high
+To sunbeam straying by
+Or passing cloud;
+Heedless if thou art heard
+Sing thy full song aloud.
+O that it were with me
+As with the flower;
+Blooming on its own tree
+For butterfly and bee
+Its summer morns:
+That I might bloom mine hour
+A rose in spite of thorns.
+O that my work were done
+As birds' that soar
+Rejoicing in the sun:
+That when my time is run
+And daylight too,
+I so might rest once more
+Cool with refreshing dew.</t>
+  </si>
+  <si>
+    <t>Pardon the faults in me,
+For the love of years ago:
+Good by.
+I must drift across the sea,
+I must sink into the snow,
+I must die.
+You can bask in this sun,
+You can drink wine, and eat:
+Good by.
+I must gird myself and run,
+Though with unready feet:
+I must die.
+Blank sea to sail upon,
+Cold bed to sleep in:
+Good by.
+While you clasp, I must be gone
+For all your weeping:
+I must die.
+A kiss for one friend,
+And a word for two,--
+Good by:--
+A lock that you must send,
+A kindness you must do:
+I must die.
+Not a word for you,
+Not a lock or kiss,
+Good by.
+We, one, must part in two:
+Verily death is this:
+I must die.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "A cup for hope!" she said,
+In springtime ere the bloom was old:
+The crimson wine was poor and cold
+By her mouth's richer red.
+"A cup for love!" how low,
+How soft the words; and all the while
+Her blush was rippling with a smile
+Like summer after snow.
+"A cup for memory!"
+Cold cup that one must drain alone:
+While autumn winds are up and moan
+Across the barren sea.
+Hope, memory, love:
+Hope for fair morn, and love for day,
+And memory for the evening gray
+And solitary dove.</t>
+  </si>
+  <si>
+    <t>Two days ago with dancing glancing hair,
+With living lips and eyes:
+Now pale, dumb, blind, she lies;
+So pale, yet still so fair.
+We have not left her yet, not yet alone;
+But soon must leave her where
+She will not miss our care,
+Bone of our bone.
+Weep not; O friends, we should not weep:
+Our friend of friends lies full of rest;
+No sorrow rankles in her breast,
+Fallen fast asleep.
+She sleeps below,
+She wakes and laughs above;
+To-day, as she walked, let us walk in love,
+To-morrow follow so.</t>
+  </si>
+  <si>
+    <t>Thou who didst hang upon a barren tree,
+My God, for me;
+Though I till now be barren, now at length,
+Lord, give me strength
+To bring forth fruit to Thee.
+Thou who didst bear for me the crown of thorn,
+Spitting and scorn;
+Though I till now have put forth thorns, yet now
+Strengthen me Thou
+That better fruit be borne.
+Thou Rose of Sharon, Cedar of broad roots,
+Vine of sweet fruits,
+Thou Lily of the vale with fadeless leaf,
+Of thousands Chief,
+Feed Thou my feeble shoots.</t>
+  </si>
+  <si>
+    <t>If I might only love my God and die!
+But now He bids me love Him and live on,
+Now when the bloom of all my life is gone,
+The pleasant half of life has quite gone by.
+My tree of hope is lopped that spread so high,
+And I forget how summer glowed and shone,
+While autumn grips me with its fingers wan,
+And frets me with its fitful windy sigh.
+When autumn passes then must winter numb,
+And winter may not pass a weary while,
+But when it passes spring shall flower again:
+And in that spring who weepeth now shall smile,
+Yea, they shall wax who now are on the wane,
+Yea, they shall sing for love when Christ shall come.</t>
+  </si>
+  <si>
+    <t>The sweetest blossoms die.
+And so it was that, going day by day
+Unto the church to praise and pray,
+And crossing the green churchyard thoughtfully,
+I saw how on the graves the flowers
+Shed their fresh leaves in showers,
+And how their perfume rose up to the sky
+Before it passed away.
+The youngest blossoms die.
+They die and fall and nourish the rich earth
+From which they lately had their birth;
+Sweet life, but sweeter death that passeth by
+And is as though it had not been:--
+All colors turn to green;
+The bright hues vanish and the odors fly,
+The grass hath lasting worth.
+And youth and beauty die.
+So be it, O my God, Thou God of truth:
+Better than beauty and than youth
+Are Saints and Angels, a glad company;
+And Thou, O Lord, our Rest and Ease,
+Art better far than these.
+Why should we shrink from our full harvest? why
+Prefer to glean with Ruth?</t>
+  </si>
+  <si>
+    <t>By day she wooes me, soft, exceeding fair:
+But all night as the moon so changeth she;
+Loathsome and foul with hideous leprosy,
+And subtle serpents gliding in her hair.
+By day she wooes me to the outer air,
+Ripe fruits, sweet flowers, and full satiety:
+But through the night, a beast she grins at me,
+A very monster void of love and prayer.
+By day she stands a lie: by night she stands,
+In all the naked horror of the truth,
+With pushing horns and clawed and clutching hands.
+Is this a friend indeed; that I should sell
+My soul to her, give her my life and youth,
+Till my feet, cloven too, take hold on hell?</t>
+  </si>
+  <si>
+    <t>Milton! I think thy spirit hath passed away
+From these white cliffs and high-embattled towers;
+This gorgeous fiery-coloured world of ours
+Seems fallen into ashes dull and grey,
+And the age changed unto a mimic play
+Wherein we waste our else too-crowded hours:
+For all our pomp and pageantry and powers
+We are but fit to delve the common clay,
+Seeing this little isle on which we stand,
+This England, this sea-lion of the sea,
+By ignorant demagogues is held in fee,
+Who love her not: Dear God! is this the land
+Which bare a triple empire in her hand
+When Cromwell spake the word Democracy!</t>
+  </si>
+  <si>
+    <t>The horrid crags, by toppling convent crowned,
+The cork-trees hoar that clothe the shaggy steep,
+The mountain moss by scorching skies imbrowned,
+The sunken glen, whose sunless shrubs must weep,
+The tender azure of the unruffled deep,
+The orange tints that gild the greenest bough,
+The torrents that from cliff to valley leap,
+The vine on high, the willow branch below,
+Mixed in one mighty scene, with varied beauty glow.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kauan lähetessä kuolemaa
+ahdistus ja pelko katoaa.
+Kevyt kulkea on rajan yli,
+suojeleva putouksen syli.
+Hän ken taistelutta siihen jää,
+ehkä eniten hän ymmärtää. 
+Syvemmille lähteille jo varhain
+ehkä joutua on osa parhain.
+Ken sen tietää? Sumuun hajoaa
+kaikki tieto, minkä tarjoo maa.
+Mutta syvyyksistä syvimmistä
+turvan tieto kohoo, viimeisistä:
+Kehdon lailla kuilu odottaa,
+untuvineen, siihen vaipuvaa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevät urpuja kultasi äsken,
+nyt lehdet kuihdutti syys.
+Liki maata on vaipuva jälleen
+tie kaiken, mi kukkia pyys.
+Kevätöin sydän liekehti tuskaa;
+mitä jäi, kun jo kylmeni maa?
+Sisin viisaus puiden ja ruohon
+kädet kuihtuvat korjatkaa! 
+Syli mullan on lehdille armas,
+hymy kukkien kuolossakin
+syvä tyyni ja kirkas kertoo:
+miks, syntyvä, pelkäisin? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mun poveltani ilmaan vapaaseen
+vavisten kaipasit, ja kuolinhaavan
+löit tuskissasi mulle sydämeen,
+pois syösten ulapoille meren aavan.
+Mut sydämeni rakkaus on meri,
+se sinut saartaa purttas kuljettain.
+Ei aavain huoku ympärilläs eri,
+poveni hengitystä on se vain.
+Niin hyöky rakkauden tuskaisen
+sua vie ja kannattaa ja hukkuu sinuun.
+Ma, valtameri, minne pakenen?
+Kun syöksyit luotani, sa syöksyit minuun. </t>
+  </si>
+  <si>
+    <t>Kun täyttyi tuskamme mitta,
+kun säikkyen kohtaloas
+sain kuulla lohdutuksitta
+sanat julmat huuliltas,
+kun viime kerran itkin,
+kädet kietoen kaulaasi,
+sinä kalpenit, vapisitkin
+ja virkoit: hyvästi, 
+niin tuoksuva, tumma ruusu
+näki eromme hirmuisen.
+Hymyn hienon se hymysi, ruusu,
+jota ymmärtänyt en.</t>
+  </si>
+  <si>
+    <t>Poloinen armas, synkeytes vanki,
+miks minuun koskea ei kätes saa?
+Mun ruumiini ei ole valkohanki,
+min kättes tuska voisi tummentaa.
+En ole ruusu terälehdin aroin,
+mi hajoo, vaikka kosket hellävaroin.
+Ma olen tulta, joka loimuaa.
+Sa poloinen, mi itsestäs et tiedä,
+voit kaiken pimeytes minuun viedä,
+ja puhtaammin vain liekki hulmahtaa.
+jokainen varjos häviää ja hukkuu
+poveeni, missä sydämesi nukkuu,
+unessaan unta nähden huumaavaa.
+Mun suojaani sa ethän siltä kiellä?
+Tuleni anna tuskas tomu niellä,
+käsilles suo, ne mitä isoaa!
+Ma olen syvyydessä lämmin saari,
+sun kättes alla olen liekin kaari.
+Kipusi tuo! Se minuun uppoaa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyngen bag os står i røg,
+står i røg,
+foran er vor dronnings bog,
+dronnings liøg.
+Vellugt slår af birk og hæg,
+birk og hæg,
+hornet stormer klippens væg,
+klippens væg.
+Luften er så blank og tørst,
+blank og torst,
+hurra, opad, hun er forst!
+hun er først!
+Jage, jage glæden selv,
+glæden selv,
+jage den i dodens elv,
+dødens elv. </t>
+  </si>
+  <si>
+    <t>Tribunene hylder i jubel
+den seirende unge atlet:
+lemmers og lungers styrke,
+kroppens fullkommenhet,
+Dog venter på denne ungdom
+en ennu større bedrift:
+timen da lemmer skal smaddres
+og lungene druknes i gift.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whitechapels bleke unger
+gisper i heten: "mor
+kommer vi aldri på landet?"
+"Vent til du engang blir stor.
+Da skal du komme på landet,
+om du er fattig og lav,
+og se på det grønne gresset
+over en skyttergrav." </t>
+  </si>
+  <si>
+    <t>Nordahl Grieg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vi feirer nu et fattig barn
+Svøpt i en krybbes strå.
+Han hersker nu i himmerik,
+Så vakkert kan det gå.
+Her kommer dine arme små
+Fra sorg, fra sult, fra gru.
+De blev korsfestet alt som barn,
+Kom også dem ihu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dengang vi var unge og drømmene blå,
+hva så?
+Hadde vi annet å vente på
+enn det å bli gamle og grå?
+Men når vi blir gamle og hårene grå,
+hva så?
+Har vi vel annet å vente på
+enn det å forgå? </t>
+  </si>
+  <si>
+    <t>Sofie Christie</t>
+  </si>
+  <si>
+    <t>Å, ingenting er som å møte
+en kjær og en fulltro ungdomsvenn
+efter de tunge og strie år.
+Ingenting er som å huilses igjen
+for to som hinannen av hjertet forstår.
+Skjønt jeg har så mangt å bøte
+og du bærer merker av dype sår.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korsets merke som ble tegnet
+på vårt bryst og på vår panne,
+korsets merke har vi hegnet
+selv om vi vårt liv forbannet,
+under korset har vi segnet
+for det edle, for det sanne.
+Korsets lære har besjelet
+våre ønsker, våre krav.
+Og ved korset har vi dvelet
+sønderknuste ved en grav. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeg gaar imellem ranke, nakne stammer.
+De blanke knopper løfter sig i lyset ind
+og drikker graadig aftensolens skin,
+som lavt paa vaarens bleke himmel flammer.
+De milde vinde stryker mine hænder,
+og lykken skjælver dypest i mit hjerte
+— den skjønne jord og livets tændte kjerte,
+som klar i denne klare vaarkveld brænder.
+Jeg knæler i din kirke, nakne skog.
+Aa muld, aa sol, aa fagre livets ord:
+Jeg er av jord, skal atter bli til jord,
+og al min sjæl er fuld av jordens lov! 
+Og hil dig, hil dig, jordens moderskjød,
+og muldens friske duft mot himlens bue,
+kastanjetræets knoppers alterlue,
+og hil dig, hil dig, sterke herre død!
+For dobbelt blaa sigjVaarens himmel hvælver
+og dobbelt fager synker sol i sjø,
+fordi imorgen skal vi kanske dø,
+og angsten gjennem jubelsangen skjærer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du kommer tilbake til det som ble levnet
+av det som i over halvhundte år
+var byen og hjemmet med trivsel og kår
+for dine og deg og for alt hva du evnet.
+Du kommer tilbake til herjede steder,
+du møter ruiner og hauger av grus
+istedenfor alt hva du husker som hus
+og velkjente plasser og gater og streder.
+Du kommer tilbake til der du har hjemme,
+til byen som lå der en dag i april
+og ventet på våren og solvarmens smil,
+en dag i april som du aldri kan glemme. </t>
+  </si>
+  <si>
+    <t>To thee old cause!
+Thou peerless, passionate, good cause,
+Thou stern, remorseless, sweet idea,
+Deathless throughout the ages, races, lands,
+After a strange sad war, great war for thee,
+(I think all war through time was really fought, and ever will be
+really fought, for thee,)
+These chants for thee, the eternal march of thee.
+(A war O soldiers not for itself alone,
+Far, far more stood silently waiting behind, now to advance in this book.)
+Thou orb of many orbs!
+Thou seething principle! thou well-kept, latent germ! thou centre!
+Around the idea of thee the war revolving,
+With all its angry and vehement play of causes,
+(With vast results to come for thrice a thousand years,)
+These recitatives for thee,–my book and the war are one,
+Merged in its spirit I and mine, as the contest hinged on thee,
+As a wheel on its axis turns, this book unwitting to itself,
+Around the idea of thee.</t>
+  </si>
+  <si>
+    <t>How they are provided for upon the earth, (appearing at intervals,)
+How dear and dreadful they are to the earth,
+How they inure to themselves as much as to any–what a paradox
+appears their age,
+How people respond to them, yet know them not,
+How there is something relentless in their fate all times,
+How all times mischoose the objects of their adulation and reward,
+And how the same inexorable price must still be paid for the same
+great purchase.</t>
+  </si>
+  <si>
+    <t>Our share of night to bear,
+Our share of morning,
+Our blank in bliss to fill,
+Our blank in scorning.
+Here a star, and there a star,
+Some lose their way.
+Here a mist, and there a mist,
+Afterwards – day!</t>
+  </si>
+  <si>
+    <t>T is so much joy! 'T is so much joy!
+If I should fail, what poverty!
+And yet, as poor as I
+Have ventured all upon a throw;
+Have gained! Yes! Hesitated so
+This side the victory!
+Life is but life, and death but death!
+Bliss is but bliss, and breath but breath!
+And if, indeed, I fail,
+At least to know the worst is sweet.
+Defeat means nothing but defeat,
+No drearier can prevail!
+And if I gain, – oh, gun at sea,
+Oh, bells that in the steeples be,
+At first repeat it slow!
+For heaven is a different thing
+Conjectured, and waked sudden in,
+And might o'erwhelm me so!</t>
+  </si>
+  <si>
+    <t>Glee! The great storm is over!
+Four have recovered the land;
+Forty gone down together
+Into the boiling sand.
+Ring, for the scant salvation!
+Toll, for the bonnie souls, –
+Neighbor and friend and bridegroom,
+Spinning upon the shoals!
+How they will tell the shipwreck
+When winter shakes the door,
+Till the children ask, "But the forty?
+Did they come back no more?"
+Then a silence suffuses the story,
+And a softness the teller's eye;
+And the children no further question,
+And only the waves reply.</t>
+  </si>
+  <si>
+    <t>Poor, paltry slaves! yet born midst noblest scenes–
+Why, Nature, waste thy wonders on such men?
+Lo! Cintra's glorious Eden intervenes
+In variegated maze of mount and glen.
+Ah me! what hand can pencil guide, or pen,
+To follow half on which the eye dilates
+Through views more dazzling unto mortal ken
+Than those whereof such things the bard relates,
+Who to the awe-struck world unlocked Elysium's gates?</t>
+  </si>
+  <si>
+    <t>There is a tomb in Arqua;–reared in air,
+Pillared in their sarcophagus, repose
+The bones of Laura's lover:here repair
+Many familiar with his well-sung woes,
+The pilgrims of his genius.He arose
+To raise a language, and his land reclaim
+From the dull yoke of her barbaric foes:
+Watering the tree which bears his lady's name
+With his melodious tears, he gave himself to fame.</t>
+  </si>
+  <si>
+    <t>Not that I love thy children, whose dull eyes
+See nothing save their own unlovely woe,
+Whose minds know nothing, nothing care to know,–
+But that the roar of thy Democracies,
+Thy reigns of Terror, thy great Anarchies,
+Mirror my wildest passions like the sea
+And give my rage a brother–!Liberty!
+For this sake only do thy dissonant cries
+Delight my discreet soul, else might all kings
+By bloody knout or treacherous cannonades
+Rob nations of their rights inviolate
+And I remain unmoved–and yet, and yet,
+These Christs that die upon the barricades,
+God knows it I am with them, in some things.</t>
+  </si>
+  <si>
+    <t>See, I have climbed the mountain side
+Up to this holy house of God,
+Where once that Angel-Painter trod
+Who saw the heavens opened wide,
+And throned upon the crescent moon
+The Virginal white Queen of Grace,–
+Mary! could I but see thy face
+Death could not come at all too soon.
+O crowned by God with thorns and pain!
+Mother of Christ!O mystic wife!
+My heart is weary of this life
+And over-sad to sing again.
+O crowned by God with love and flame!
+O crowned by Christ the Holy One!
+O listen ere the searching sun
+Show to the world my sin and shame.</t>
+  </si>
+  <si>
+    <t>I dwelt alone
+In a world of moan,
+And my soul was a stagnant tide,
+Till the fair and gentle Eulalie became my blushing bride–
+Till the yellow-haired young Eulalie became my smiling bride.
+Ah, less–less bright
+The stars of the night
+Than the eyes of the radiant girl!
+And never a flake
+That the vapour can make
+With the moon-tints of purple and pearl,
+Can vie with the modest Eulalie's most unregarded curl–
+Can compare with the bright-eyed Eulalie’s most humble and careless curl.
+Now doubt–now Pain
+Come never again,
+For her soul gives me sigh for sigh,
+And all day long
+Shines, bright and strong,
+Astarté within the sky,
+While ever to her dear Eulalie upturns her matron eye–
+While ever to her young Eulalie upturns her violet eye.</t>
+  </si>
+  <si>
+    <t>Thou wast all that to me, love,
+For which my soul did pine–
+A green isle in the sea, love,
+A fountain and a shrine,
+All wreathed with fairy fruits and flowers,
+And all the flowers were mine.
+Ah, dream to bright to last!
+Ah, starry Hope! that didst arise
+But to be overcast!
+A voice from out the Future cries,
+"On! on!"–but o'er the Past
+(Dim gulf!) my spirit hovering lies
+Mute, motionless, aghast!
+For, alas! alas! with me
+The light of Life is o'er!
+"No more–no more–no more–"
+(Such language holds the solemn sea
+To the sands upon the shore)
+Shall bloom the thunder-blasted tree
+Or the stricken eagle soar!
+And all my days are trances,
+And all my nightly dreams
+Are where thy grey eye glances,
+And where thy footstep gleams–
+In what ethereal dances,
+By what eternal streams.</t>
+  </si>
+  <si>
+    <t>Take this kiss upon the brow!
+And, in parting from you now,
+Thus much let me avow–
+You are not wrong, who deem
+That my days have been a dream;
+Yet if hope has flown away
+In a night, or in a day,
+In a vision, or in none,
+Is it therefore the less gone?
+All that we see or seem
+Is but a dream within a dream.
+I stand amid the roar
+Of a surf-tormented shore,
+And I hold within my hand
+Grains of the golden sand–
+How few! yet how they creep
+Through my fingers to the deep,
+While I weep–while I weep!
+O God! can I not grasp
+Them with a tighter clasp?
+O God! can I not save
+One from the pitiless wave?
+Is all that we see or seem
+But a dream within a dream?</t>
+  </si>
+  <si>
+    <t>Beloved! amid the earnest woes
+That crowd around my earthly path–
+(Drear path, alas! where grows
+Not even one lonely rose)–
+My soul at least a solace hath
+In dreams of thee, and therein knows
+An Eden of bland repose.
+And thus thy memory is to me
+Like some enchanted far-off isle
+In some tumultuous sea–
+Some ocean throbbing far and free
+With storms–but where meanwhile
+Serenest skies continually
+Just o'er that one bright island smile.</t>
+  </si>
+  <si>
+    <t>In spring of youth it was my lot
+To haunt of the wide world a spot
+The which I could not love the less–
+So lovely was the loneliness
+Of a wild lake, with black rock bound,
+And the tall pines that towered around.
+But when the Night had thrown her pall
+Upon that spot, as upon all,
+And the mystic wind went by
+Murmuring in melody–
+Then–ah then I would awake
+To the terror of the lone lake
+Yet that terror was not fright,
+But a tremulous delight–
+A feeling not the jewelled mine
+Could teach or bribe me to define–
+Nor Love–although the Love were thine.
+Death was in that poisonous wave,
+And in its gulf a fitting grave
+For him who thence could solace bring
+To his lone imagining–
+Whose solitary sole could make
+An Eden of that dim lake.</t>
+  </si>
+  <si>
+    <t>The happiest day–the happiest hour
+My sear'd and blighted heart hath known,
+The highest hope of pride and power,
+I feel hath flown.
+Of power! said I? yes! such I ween;
+But they have vanish'd long, alas!
+The visions of my youth have been–
+But let them pass.
+And, pride, what have I now with thee?
+Another brow may even inherit
+The venom thou hast pour'd on me–
+Be still, my spirit!
+The happiest day–the happiest hour
+Mine eyes shall see–have ever seen,
+The brightest glance of pride and power,
+I feel–have been:
+But were that hope of pride and power
+Now offer'd, with the pain
+Even then I felt–that brightest hour
+I would not live again:
+For on its wing was dark alloy,
+And, as it flutter'd–fell
+An essence–powerful to destroy
+A soul that knew it well.</t>
+  </si>
+  <si>
+    <t>At morn–at noon–at twilight dim–
+Maria! thou hast heard my hymn!
+In joy and woe–in good and ill–
+Mother of God, be with me still!
+When the hours flew brightly by,
+And not a cloud obscured the sky,
+My soul, lest it should truant be,
+Thy grace did guide to thine and thee;
+Now, when storms of Fate o'ercast
+Darkly my Present and my Past,
+Let my Future radiant shine
+With sweet hopes of thee and thine!</t>
+  </si>
+  <si>
+    <t>Twas noontide of summer,
+And mid-time of night;
+And stars in their orbits,
+Shone pale, thro' the light
+Of the brighter, cold moon,
+'Mid planets her slaves,
+Herself in the Heavens,
+Her beam on the waves.
+I gazed awhile
+On her cold smile;
+Too cold–too cold for me–
+There pass'd, as a shroud,
+A fleecy cloud,
+And I turn'd away to thee,
+Proud Evening Star,
+In thy glory afar,
+And dearer thy beam shall be;
+For joy to my heart
+Is the proud part
+Thou bearest in Heaven at night,
+And more I admire
+Thy distant fire,
+Than that colder, lowly light.</t>
+  </si>
+  <si>
+    <t>I saw thee on thy bridal day–
+When a burning blush came o'er thee,
+Though happiness around thee lay,
+The world all love before thee:
+And in thine eye a kindling light
+(Whatever it might be)
+Was all on Earth my aching sight
+Of Loveliness could see.
+That blush, perhaps, was maiden shame–
+As such it well may pass–
+Though its glow hath raised a fiercer flame
+In the breast of him, alas!
+Who saw thee on that bridal day,
+When that deep blush would come o'er thee,
+Though happiness around thee lay;
+The world all love before thee.</t>
+  </si>
+  <si>
+    <t>Sain ma siivet aurinkoon, itse ilman herra oon, ukkoselta vaajat vienen; jumalaksi luotu lienen.
+Minkä tahdon, sen ma voin: päiden päällä salamoin, isken maihin ihmisien, katot särjen kaupunkien.
+Suitsen surmaa helmastain, tapan, ketä tahdon vain, aseellista, aseetonta– niitä jo ma niitin monta.
+Vuosisatain unelman, toivon pitkän toteutan, niinkuin lintu lennän, liidän, kimppuun ihmiskunnan kiidän.
+Kunniaani laulakaa kaikki kansat, kaikki maa, kiitostani veisatkaatte, silloin tekin siivet saatte!</t>
+  </si>
+  <si>
+    <t>Mitään muuta ei ole kuin tämä päällekirjoitus vanhassa ohjelmassa.
+Mutta anna mielikuvituksesi kyyhkysten lähteä itäiseen ilmansuuntaan aamuvihreän niityn halki! Ja näe elämän kauneus!
+Hänen ruskeassa tukassaan on jalomuotoinen solmu, silkkinauhan sitoma. Ja hänen paljas kätensä, jota ei saa koskea – vain rakastaa, on puoliksi vedessä. Ja jos taidat nähdä, on hänen sydämensä kohonnut taivaaseen liekehtivänä, elähdyttävänä: se sinkoaa itsestään punaista, vihreätä, sinistä, keltaista, kaikki riemulliset tulen värit!
+Ja kuule hänen laulunsa, joka on vielä liikkumattomana hänen huulillaan eikä voi päästä ilmoille! Se on korkea laulu: koko taivas antaa resonanssin. Ja äkkiä kilahtavat soimaan valkoiset, käsittämättömän heleät tiu'ut.</t>
+  </si>
+  <si>
+    <t>Mikä tuoksu palmujen alla!
+Ah!
+Ruusunpunaiset kakadut hämmästyen
+pudottavat puoleksisyödyt hedelmät maahan.
+Ooo – nuori päällikkö kulkee kosioteillä!
+Hän valmisti suloisen voiteen kokosmaidosta ja lemuavista yrteistä, ja hänen ruumiinsa tuoksuu kuin laiva täynnä hedelmiä ja kukkia ja kanelia.
+Mikä jumalallinen päällikkö! Hänen molempiin poskiinsa ja rintoihinsa on tatuoitu valkoinen aurinko, ja seppele hehkuvia kukkia kiertyy hänen lanteillensa.
+Ja tytöt kirkuvat niin rakastuneesti: »Ooo, ihana päällikkö!» ja seisovat somina kuin ruukkunsa, kun hän astuu keikaroiden kaivolle palmujen alta.</t>
+  </si>
+  <si>
+    <t>Tähän on ihana oikaista.
+Kallion kämmenelle.
+Alastomana.
+Uimasta päästyä juuri.
+Otsalla vielä
+märkien hiusten liuta.
+Tässä on kesä.
+Vieressä, yllä ja eessä.
+Neilikan terissä telmien.
+Mansikan punassa posket.
+Ilojaan ilmoille huutaen
+lauluna rantarastaan.
+Kurotat kätesi vain
+ja kas–se on kesää täynnä!
+Tässä on ihana olla.
+Kesäkiireitä katsella muurahaisten.
+Tämä on onnea, tämä.
+Katsella.
+Aatoksitta.
+Taivas telttana yllä
+niinkuin sininen silkki.
+Katossa huikean kiiltävä kultaraha.
+On nyt nahka jo kypsä, on totta maarin. jo, jopa onkin oikea Luojan leivinuuni kallio tämä.</t>
+  </si>
+  <si>
+    <t>Ääriä käyn kotirantain, kaipaus sydäntä syö. Valkeiden kuohujen kutsuja kantain aallot paasihin lyö.
+Jos kotivuorelle nousen, ah, miten alhaalla oon! Saisinpa taattoni jäntevän jousen –ampuisin aurinkoon!
+Kun kotilaaksoja harhaan, kaipaus yltyy vaan: täälläkö, täälläkö aikani parhaan jäisin mä kuluttamaan!
+Maanala-vankilan koppiin kuin sydän teljetty ois! Ei! Ulos aavalle, myrskyjen oppiin, päänmenoleikkihin, pois!
+Tääll' olet tielläni, taatto, tielläni uljahat työs. Laakerilehvät ja sankarisaatto poikas on saatava myös!
+Taattoni tappelumiekan vyölleni vyöttävä oon. Voittajaks jään tahi jossakin hiekan hurmeeni punertakoon.</t>
+  </si>
+  <si>
+    <t>Ah, anteeks anna, että rakastan.
+En tohdi pyytää mitään enempää.
+Mun ainoaksi osakseni jää
+se riemu, tuska, että rakastan.
+Ah, anteeks anna, että rakastan.
+Jos mielit vihata, niin vihaa vaan.
+Sun luotas lähden, kärsin–kuitenkaan
+ma unhoita en, että rakastan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kun haudon ongelmaamme kipeää,
+mi ajatusta uupuvaa ei säästä,
+mi koskaan väisty ei, ei luotaan päästä,
+mua kesän tuoksu lämmin tervehtää.
+Sun kukkas! Herkin varsin kaartuen
+ne hymyävät hymyn taivaisen.
+Niin avuton on ihmisymmärrys.
+Sen parhaimmatkin sanat väärin soivat,
+ne harhaan viedä, pettää, tappaa voivat.
+Lie vilpitön vain kukkain selitys.
+Sisimmän, mit’ ei sanat koskaan sano,
+pyhimmän, mitä eivät huulet ano,
+tuo tuoksun aalto unhoittumaton –
+Oi, älä kysy, mi sen nimi on! </t>
+  </si>
+  <si>
+    <t>Nu stråler høje minner
+i Nordens vinter-nat
+på fjældets hvide tinder,
+på sorte Kattegat. 
+Der er så stort og stille,
+mens nordlys flyver ind,
+som oin de skabe vilde
+en dag ved minners skin.
+Hver dåd til Nordens ære,
+hver tanke til dens held,
+et stjærne-bud nu bære
+ned i den kolde kvæld!
+Til håb, til trøst de lyser –
+og med fordoblet magt
+for den, der går og fryser
+ved Ejderen på vagt!
+Ej angstens skygge-vrimmel,
+ej lunkenhedens damp
+må morkne minnets himmel
+i natten før en kamp!
+Gid nu som for må høres
+i luften klokker slå,
+og hele hæren fores
+af mænd, den aldrig så!</t>
+  </si>
+  <si>
+    <t>I skogen smågutten gik dagen lang,
+gik dagen lang,
+der havde han hort slig en underlig sang,
+underlig sang.
+Gutten en fløjte af selje skar,
+af selje skar, –
+og prøvde, om tonen derinne var,
+derinne var.
+Tonen, den hvisked og nævnte sig,
+og nævnte sig,
+men bedst som han lydde, den lob sin vej,
+den løb siu vej.
+Tidt, når han sov, den til ham smøg,
+den til ham smøg.
+Og over hans pande med elskov strøg,
+med elskov strøg.
+Vilde den fange og vågned bråt,
+og vågned bråt;
+men tonen hang fast i den blege nat,
+i den blege nat.
+»Herre min Gud, tag mig derind,
+tag mig derind; .
+ti tonen har faet mit hele sind,
+mit hele sind.
+Herren, lian svared: uden er din ven;
+den er din ven;
+skont aldrig en time du ejer den,
+du ejer den.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeg ejer en ven, han hviskede nu:
+"Guds fred!" i mit natvåge sind.
+Når lysene dør, når mørket har gru,
+da kommer han gærnest ind.
+Han ejer ej ord, som falder mig hårdt;
+thi selv har han syndet og lidt.
+lian læger med blik det sted, som er sårt,
+og sidder, til jeg har stridt.
+Er gærningen gjort, han kalder den sin,
+om hjærtet har sorg derved.
+Ilan tvætter den tro med så håndblodt et lin,
+at smærten må give fred.
+Han fulgte hvert håb, som jublende steg,
+han tyngede ej, når det faldt.
+Han star her just nu, så mild, men så bleg; –
+om år skal han se, hvad det galdt! </t>
+  </si>
+  <si>
+    <t>Med Nordsjøen ved huset – mot havets sake blest
+som sprengte doren åpen, gikk veien vår mot vest!
+Å store sang av frihet som vidde livet inn!
+Men bak den sangen ventet en stillhet i vårt sinn.
+Et sus av regn som sivet mot elv, mot vårgrøn eng,
+et vær av vekst og mildhet og evig sammenheng.
+Som dalen her, så slekten; ja, her kan livet si,
+der finnes noget større enn det å være fri.
+Den våte, milde vinden står om oss som et hjem,
+den kjente slekter før oss; nær bringes vi til dem.
+Som evighet, som mening vi føler livet gro,
+fordi den vinden strøk oss, og trær og fjell forstod.</t>
+  </si>
+  <si>
+    <t>Spør du hva jeg lengter efter
+efter hva og efter hvem
+bakom grensen, bakom Kjølen,
+svarer jeg, jeg lengter hjem.
+Hjem igjen hver natt i drømme
+går jeg samme vei jeg kom
+over myr og gjennom skoger –
+og jeg vender aldri om.</t>
+  </si>
+  <si>
+    <t>Sigrid Undset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingen tør jeg at klandre
+blev ensom min sjæl.
+Er der en mur mellem mig og de andre
+bygget jeg den selv.
+Er der ingen, mig kjender
+— jeg vilde det vel saa.
+Der var vel møtt de hjerter og hænder,
+som jeg kunde naa.
+Ingen blir svigtet av livet
+— nu vet jeg det vel,
+som uten svik har givet
+det liv og sjæl. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O, jeg har mer end elsket dig,
+for jeg har hat dig hjertens kjær
+i dage og i aar,
+— men elskov kommer hastelig,
+og hastelig den gaar.
+Du elsket mig — som dyrt du svor
+Jeg tok ei feil, som trodde dig
+— for hver en ed, du brød.
+Jeg trodde ikke dine ord
+men dine læbers glød.
+Og nu, som du har sveget mig
+— nu er jeg rolig, som jeg alt
+laa gjemt i jordens skjød.
+I moders hus paa alfar vei
+— jeg gaar der som en død. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeg saa ikveld dit ansigt, evighet.
+Med lukte vinger hvilte høstens vind
+blandt gulnet aspeløv —, et purpurskin
+faldt over aaserne, da sol gik ned.
+Nu kommer natten, kold og fuld av fred,
+med tusen løvfalds hilsen til mit sind.
+Som lys og varme dør med solens skin
+forsvinder vi. Men livet varer ved.
+Og dog vort liv kan evigheten rumme.
+I kval og lyst, — naar tiden stille staar,
+den skjænkes os av nattens lapiskumme.
+— Ifald din skjæbne vil det, skal du kjende
+de dage, hvorav en er tusen aar,
+og nætterne, der synes uten ende. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Et navn, som var vort liv engang,
+og siden som et blodig saar
+i sindet — og saa aar for aar
+som mindet om en sluknet sang.
+Og livet glir — og aar for aar
+i tomt og taushet dør den hen.
+— En dag saa blir det kanske vaar
+og se — vort liv er liv igjen.
+Da hænds det — i en drømmestund
+vi minds — blandt nye toners klang,
+med skjælv av nye smil om mund
+et navn, som var vort liv engang.
+Vi ser — som paa et vissent blad,
+vor ungdoms yndlingsbok har gjemt
+til minde om en sommerdag,
+hvis duft og farver længst er glemt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livet har vist budt mig gaver
+som jeg ikke tok imot —.
+Jeg blev bedt, og jeg blev lovet
+— det var jeg, som ei forstod.
+Var det slik, jeg kom til maalet
+gik forbi og ikke saa det?
+Jeg har gaat for langt og længe,
+og nu kan jeg ikke naa det.
+Er det mørkt, fordi jeg ikke
+flammen paa min lampe nærte
+Fryser jeg, fordi jeg bærer
+kulden i mit eget hjerte — ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Det Første bitre ord var talt
+imellem dig og mig;
+vi fulgtes tause samme vei,
+— vi gik og angret alt.
+Og trist jeg stirret like frem,
+— da knitret det i veiens støv —
+som slæpte jeg min kjoles brem
+henover vissent lov.
+Men guldregn blomstret, og syrin,
+i parken, hvor vi gik,
+og junidagens soldis fik
+en vellugt, het og tung som vin.
+Utover plænens blomsterpragt
+gik hvite sommerFugles flugt,
+og det, som knitret i min dragt,
+var almetræets vingefrugt.
+Høit op i himlens klare bund
+drev hvite skyfnugg, bitte smaa.
+— Jeg løftet øiet mot det blaa —
+da kysset du min mund.
+Og skjønt jeg først stred litt imot,
+var snart vor første trætte glemt.
+Men dypest i min hjerterot
+sat der en liten kulde gjemt.
+Og da det sidste bitre ord
+var skiftet mellem dig og mig,
+og harm og saar jeg gik min vei,
+da raslet paa den frosne jord
+det visne lov i tætte lag;
+der steg en skarp og syrlig lugt.
+— Da mindtes jeg den junidag
+og almetræets frugt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laurentii taarers tid — og over himlen
+drysser i disse nætter stjerneskud,
+og fra mit vindu passer jeg paa vrimlen,
+for med hver stjerne skal jeg sende bud.
+Aar efter aar jeg ønsket med hver stjerne.
+Nu, for mig seiv jeg ønsker ikke mer;
+hver haabløs bøn jeg sendte mot det fjerne
+er opfyldt nu — jeg sender ingen fler
+for mig — men over byens mørke take
+jeg speider mot Laurentii taarers væld
+og ønsker med hvert stjerneskud, og har tilbake
+ti tusen ønsker for en anden en ikveld.
+Og saa jeg alle himlens stjerner falde,
+og naadde jeg at ønske med dem hver og en,
+saa fik jeg endda ikke ønsket alle
+mit hjertes ønsker for min egen ven. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hjertet styrkes ved at lide.
+Hjertet styrkes ved at lide,
+armens muskler ved at stride,
+stemmen hæves i en blæst.
+Først en mand, hvis kraft ei svigter,
+saa en freidigsindet digter;
+dette er dit kald dernæst!
+Sørger du, da blot en strimmel
+lyseblaat af foraarshimmel,
+og du juble vil af lyst.
+Du, hvem duggen kan beruse,
+sig, hvor er den magt, der knuse
+kan et saa fredsaligt bryst? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elisa, had mig ei, fordi
+din sorg jeg er forelsket i.
+Den glansen paa dit aasyn kaster
+af himmelsk billeds alabaster.
+Sin overjordiske plastik
+af kummeren din skjønhed fik.
+Du høie sjel med knuste sind,
+o lad din kummer være min!
+Jeg elsker den, fordi forhøiet 
+den har det aandemulm i øiet,
+fordi dens bleghed er saa fin,
+som paa hesvimet engels kind.
+Du skjønne sorg, jeg har dig kjær,
+fordi Elisa seiv du er.
+Hun dig kun føler, dig kun drømmer;
+din svaghed i hver aare strømmer.
+Hun er en blomst, en sensitiv,
+der faar kun af din dug sit liv. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">God paa sin vis
+maa kver verda funnen.
+Aldri eg fann
+nokon syndig i grunnen.
+God paa sin vis
+vist kver ein maa vera.
+Naud maa der til,
+nåar vondt han skal gjera.
+Kver paa sin vis
+si sæla vil vinna,
+altid han leitar,
+men sjeldan kann finna.
+Den, som med hat
+fraa livet seg vende,
+livet til gagns
+rett aldri han kjende. </t>
+  </si>
+  <si>
+    <t>Aasmund Olavson Vinje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solveig.
+Lig fjorden, som stille i maaneskin drømmer,
+ung Solveiges mørkeblaa øie det svømmer
+i taarer. Og hjertet det banker
+af ømhed og længsel,
+lig bølgen mod kyst
+misunder i fængsel
+de frifødte tanker,
+som fløi til den elskedes bryst.
+Ved stranden bun lytter; men natten gjenlyder
+saa fjernt ud fra havet, som larmer og bryder
+mod skjæret. En havfrue synger
+der ude sin smerte
+med smeltende klang.
+Naar længselen tynger
+for tungt paa et hjerte,
+det elsker en sorrigfuld sang.
+Ak, vidste du Solveig, hvad havfruen synger!
+Det knager fra furrenes natsorte klynger
+lig sukke. En gut her fra fjorde
+hun fulgte saa vide
+med elskov paa sjø.
+Men syd under lide
+de rydded hans borde,
+nu maa hun i havskummet dø. </t>
+  </si>
+  <si>
+    <t>Jonas Lie</t>
   </si>
 </sst>
 </file>
@@ -1966,15 +2864,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08C00CF-5093-4640-B914-08BEE42E51D1}">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="183.5703125" customWidth="1"/>
+    <col min="1" max="1" width="106.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="165" x14ac:dyDescent="0.25">
@@ -2001,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2009,39 +2907,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="315" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2049,100 +2947,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -2150,751 +3048,1111 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="B33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="390" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="345" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="225" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="B98" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B77" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B78" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="315" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="315" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B89" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B90" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B91" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B104" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
         <v>106</v>
       </c>
-      <c r="B100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B105" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B106" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B107" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B108" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B109" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B110" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+    </row>
+    <row r="116" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="B116" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="B117" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B119" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="B120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B122" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B123" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B124" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B125" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B126" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B127" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B129" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B130" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B131" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B132" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="B133" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B134" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B135" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B136" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B137" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B141" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B142" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="B143" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B144" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B146" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B147" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B150" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B151" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B153" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B154" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B155" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B156" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B157" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B158" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B159" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B160" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/Table 1 with authors.xlsx
+++ b/Table 1 with authors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Käyttäjä\PycharmProjects\HumanOrChatGPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E0831C-BCDB-42C9-8CCF-271DD40D2961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B82DB3-70D9-4A8C-87F7-CA46E3DC5259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{6D8C0215-5990-4EED-8E53-4AB4317B62E6}"/>
   </bookViews>
@@ -708,15 +708,6 @@
   </si>
   <si>
     <t>Aleksis Kivi</t>
-  </si>
-  <si>
-    <t>Tuleen heitetty
-Idylli
-Muodon vaihdos
-Valtalaulu
-Musta mies
-Juomarit
-Excelsior</t>
   </si>
   <si>
     <t>L. Onerva</t>
@@ -2487,6 +2478,32 @@
   </si>
   <si>
     <t>Jonas Lie</t>
+  </si>
+  <si>
+    <t>Kuin käden vienon viileys
+saa kulmilleni mun,
+kuin häive, huntu, ilmestys
+maan oudon, salatun.
+Ah tunnenhan, ah tunnenhan
+ma, Sumuneiti, sun!
+Yön rimpi olen rauhaton,
+yön kuningatar sa,
+sun kruunus liljankukka on,
+ties niitun untuva.
+ Oi valtiatar varjon maan,
+mua raukkaa rakasta!
+On viittas unta viherää
+ja silmäsi kuin suo.
+Ma tuoksus tunnen, vaikk' en nää,
+sun suutas suuni juo.
+Ah, sallithan, ah sallithan
+mun jäädä yötä luo!
+Sun lempes yllein lankeaa
+kasteisin pisaroin.
+ Näin kyynelees mua armastaa
+valveeseen aamun koin.
+Yölintuna sun povellas
+ma kaikertelen, soin…</t>
   </si>
 </sst>
 </file>
@@ -2866,16 +2883,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08C00CF-5093-4640-B914-08BEE42E51D1}">
   <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="106.85546875" customWidth="1"/>
+    <col min="1" max="1" width="106.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2883,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2891,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2899,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2907,15 +2924,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2923,23 +2940,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2947,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2955,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2963,15 +2980,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2979,23 +2996,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -3003,7 +3020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -3011,7 +3028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -3019,7 +3036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -3027,7 +3044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
@@ -3035,7 +3052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -3043,7 +3060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -3051,7 +3068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -3059,7 +3076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -3067,23 +3084,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -3091,7 +3108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -3099,15 +3116,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -3115,7 +3132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -3123,7 +3140,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -3131,7 +3148,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
@@ -3139,7 +3156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3147,7 +3164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -3155,7 +3172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -3163,7 +3180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -3171,7 +3188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -3179,7 +3196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -3187,7 +3204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -3195,23 +3212,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3219,7 +3236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
@@ -3227,7 +3244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -3235,7 +3252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="377" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
@@ -3243,15 +3260,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
@@ -3259,7 +3276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
@@ -3267,7 +3284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>40</v>
       </c>
@@ -3275,167 +3292,167 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="377" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="62" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="63" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="64" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="65" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="66" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="67" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="68" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="69" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="70" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B64" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="375" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>42</v>
       </c>
@@ -3443,7 +3460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>44</v>
       </c>
@@ -3451,7 +3468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>45</v>
       </c>
@@ -3459,55 +3476,55 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B77" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>47</v>
       </c>
@@ -3515,7 +3532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>48</v>
       </c>
@@ -3523,636 +3540,636 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" t="s">
         <v>50</v>
       </c>
-      <c r="B82" t="s">
+    </row>
+    <row r="83" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="B83" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B84" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="B85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B85" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="B86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B86" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="B87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B87" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B88" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="B89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B89" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="B90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B90" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="B91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B92" t="s">
         <v>65</v>
       </c>
-      <c r="B91" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    </row>
+    <row r="93" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="319" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="232" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B92" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="B98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B102" t="s">
         <v>75</v>
       </c>
-      <c r="B93" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="180" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B94" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="315" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B95" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B96" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B97" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B98" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+    </row>
+    <row r="103" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B103" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B100" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="315" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="B104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" t="s">
         <v>85</v>
       </c>
-      <c r="B102" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B103" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+    </row>
+    <row r="110" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B110" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="377" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B104" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B105" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B106" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B108" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="B111" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B114" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B118" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="319" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B110" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B111" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B112" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B113" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B114" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B115" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B116" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="B121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="377" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B124" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B125" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B126" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B127" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="348" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B128" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="290" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B129" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B130" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B118" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B119" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="330" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="B132" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B120" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B121" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B122" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="390" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B123" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B124" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B125" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B126" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B127" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B128" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B129" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B130" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="B133" t="s">
         <v>98</v>
       </c>
-      <c r="B131" t="s">
+    </row>
+    <row r="134" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B134" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B135" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="348" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" ht="405" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B132" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="345" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="B136" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="290" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="348" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B139" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="290" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B140" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="348" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B141" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B133" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B134" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="B142" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B143" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B135" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B136" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="B145" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B146" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B147" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B148" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B150" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="348" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B155" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="232" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B137" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B138" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B139" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="300" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B140" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B141" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B142" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B143" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B144" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B145" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B146" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B147" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B148" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="165" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B149" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="135" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B150" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="360" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B151" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="255" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B153" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="225" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B154" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="210" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="285" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B158" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="240" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="B159" t="s">
         <v>179</v>
       </c>
-      <c r="B159" t="s">
+    </row>
+    <row r="160" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" ht="405" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="B160" t="s">
         <v>181</v>
-      </c>
-      <c r="B160" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
